--- a/mysite/static/cuestionario_plantilla.xlsx
+++ b/mysite/static/cuestionario_plantilla.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E620ACC7-B3D5-4C07-BC53-497FCF2BB9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD6C9218-44DE-42BF-82DA-F7BAECDB2D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4141B20B-64CC-4455-9869-BBF057190801}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>pregunta</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>opcion_incorrecta_3</t>
+  </si>
+  <si>
+    <t>url_imagen</t>
   </si>
 </sst>
 </file>
@@ -462,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA92F743-FBCB-492B-86C5-7965AEC61F66}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,69 +489,81 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
